--- a/testdataemails.xlsx
+++ b/testdataemails.xlsx
@@ -22,7 +22,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t xml:space="preserve">admin711@gmail.com</t>
+    <t xml:space="preserve">admin712@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">John</t>
@@ -169,7 +169,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="20.18"/>
@@ -243,7 +243,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" display="admin711@gmail.com"/>
+    <hyperlink ref="A1" r:id="rId1" display="admin712@gmail.com"/>
     <hyperlink ref="D1" r:id="rId2" display="P@ssw0rd"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/testdataemails.xlsx
+++ b/testdataemails.xlsx
@@ -22,7 +22,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t xml:space="preserve">admin712@gmail.com</t>
+    <t xml:space="preserve">admin720@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">John</t>
@@ -169,7 +169,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="20.18"/>
@@ -243,7 +243,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" display="admin712@gmail.com"/>
+    <hyperlink ref="A1" r:id="rId1" display="admin720@gmail.com"/>
     <hyperlink ref="D1" r:id="rId2" display="P@ssw0rd"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/testdataemails.xlsx
+++ b/testdataemails.xlsx
@@ -22,7 +22,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t xml:space="preserve">admin720@gmail.com</t>
+    <t xml:space="preserve">admin800@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">John</t>
@@ -169,7 +169,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="20.18"/>
@@ -243,7 +243,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" display="admin720@gmail.com"/>
+    <hyperlink ref="A1" r:id="rId1" display="admin800@gmail.com"/>
     <hyperlink ref="D1" r:id="rId2" display="P@ssw0rd"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/testdataemails.xlsx
+++ b/testdataemails.xlsx
@@ -22,7 +22,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t xml:space="preserve">admin800@gmail.com</t>
+    <t xml:space="preserve">admin900@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">John</t>
@@ -169,7 +169,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="20.18"/>
@@ -243,7 +243,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" display="admin800@gmail.com"/>
+    <hyperlink ref="A1" r:id="rId1" display="admin900@gmail.com"/>
     <hyperlink ref="D1" r:id="rId2" display="P@ssw0rd"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
